--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702873</v>
+        <v>111702796</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516761.0073171449</v>
+        <v>516756.4585669422</v>
       </c>
       <c r="R2" t="n">
-        <v>6574773.157834023</v>
+        <v>6574760.884648616</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702796</v>
+        <v>111702873</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516756.4585669422</v>
+        <v>516761.0073171449</v>
       </c>
       <c r="R3" t="n">
-        <v>6574760.884648616</v>
+        <v>6574773.157834023</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702796</v>
+        <v>111702802</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516756.4585669422</v>
+        <v>516752.3535787854</v>
       </c>
       <c r="R2" t="n">
-        <v>6574760.884648616</v>
+        <v>6574763.929792823</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702873</v>
+        <v>111702796</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516761.0073171449</v>
+        <v>516756.4585669422</v>
       </c>
       <c r="R3" t="n">
-        <v>6574773.157834023</v>
+        <v>6574760.884648616</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702802</v>
+        <v>111702873</v>
       </c>
       <c r="B4" t="n">
         <v>90332</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516752.3535787854</v>
+        <v>516761.0073171449</v>
       </c>
       <c r="R4" t="n">
-        <v>6574763.929792823</v>
+        <v>6574773.157834023</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702802</v>
+        <v>111702796</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516752.3535787854</v>
+        <v>516756.4585669422</v>
       </c>
       <c r="R2" t="n">
-        <v>6574763.929792823</v>
+        <v>6574760.884648616</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702796</v>
+        <v>111702802</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516756.4585669422</v>
+        <v>516752.3535787854</v>
       </c>
       <c r="R3" t="n">
-        <v>6574760.884648616</v>
+        <v>6574763.929792823</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702796</v>
+        <v>111702873</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516756.4585669422</v>
+        <v>516761.0073171449</v>
       </c>
       <c r="R2" t="n">
-        <v>6574760.884648616</v>
+        <v>6574773.157834023</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702873</v>
+        <v>111702796</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516761.0073171449</v>
+        <v>516756.4585669422</v>
       </c>
       <c r="R4" t="n">
-        <v>6574773.157834023</v>
+        <v>6574760.884648616</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702873</v>
+        <v>111702796</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516761.0073171449</v>
+        <v>516756.4585669422</v>
       </c>
       <c r="R2" t="n">
-        <v>6574773.157834023</v>
+        <v>6574760.884648616</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702802</v>
+        <v>111702873</v>
       </c>
       <c r="B3" t="n">
         <v>90332</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516752.3535787854</v>
+        <v>516761.0073171449</v>
       </c>
       <c r="R3" t="n">
-        <v>6574763.929792823</v>
+        <v>6574773.157834023</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702796</v>
+        <v>111702802</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516756.4585669422</v>
+        <v>516752.3535787854</v>
       </c>
       <c r="R4" t="n">
-        <v>6574760.884648616</v>
+        <v>6574763.929792823</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702873</v>
+        <v>111702802</v>
       </c>
       <c r="B3" t="n">
         <v>90332</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516761.0073171449</v>
+        <v>516752.3535787854</v>
       </c>
       <c r="R3" t="n">
-        <v>6574773.157834023</v>
+        <v>6574763.929792823</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702802</v>
+        <v>111702873</v>
       </c>
       <c r="B4" t="n">
         <v>90332</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516752.3535787854</v>
+        <v>516761.0073171449</v>
       </c>
       <c r="R4" t="n">
-        <v>6574763.929792823</v>
+        <v>6574773.157834023</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702873</v>
+        <v>111702802</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516761.0073171449</v>
+        <v>516752</v>
       </c>
       <c r="R2" t="n">
-        <v>6574773.157834023</v>
+        <v>6574764</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702802</v>
+        <v>111702796</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516752.3535787854</v>
+        <v>516756</v>
       </c>
       <c r="R3" t="n">
-        <v>6574763.929792823</v>
+        <v>6574761</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,19 +862,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702796</v>
+        <v>111702873</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516756.4585669422</v>
+        <v>516761</v>
       </c>
       <c r="R4" t="n">
-        <v>6574760.884648616</v>
+        <v>6574773</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,19 +968,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 29478-2022.xlsx
+++ b/artfynd/A 29478-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111702802</v>
+        <v>111702873</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516752</v>
+        <v>516761</v>
       </c>
       <c r="R2" t="n">
-        <v>6574764</v>
+        <v>6574773</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702796</v>
+        <v>111702802</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516756</v>
+        <v>516752</v>
       </c>
       <c r="R3" t="n">
-        <v>6574761</v>
+        <v>6574764</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702873</v>
+        <v>111702796</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516761</v>
+        <v>516756</v>
       </c>
       <c r="R4" t="n">
-        <v>6574773</v>
+        <v>6574761</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
